--- a/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
+++ b/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\workspace_tetris\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCB1E4F4-9DAE-4FB6-8EEC-E748A7278ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF89C00-4812-4314-9DA5-77058067CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="2400" yWindow="3015" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="alarmDataModel" sheetId="1" r:id="rId1"/>
+    <sheet name="列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>UDP socket打开失败</t>
-  </si>
-  <si>
-    <t>UDP socket打开失败，通常由端口资源冲突或者网络物理层失效导致。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>严重</t>
-  </si>
-  <si>
-    <t>1、首先排查接收端的IP地址和端口号是否有错误或者冲突。&lt;br /&gt;2、其次，检查接收端网络状态是否正常&lt;br /&gt;3、最后，检查接收端上报告警的进程是否打开了太多的文件句柄。</t>
   </si>
   <si>
     <t>告警编码</t>
@@ -39,14 +30,157 @@
   </si>
   <si>
     <t>告警名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>无异常</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>输入断流</t>
+  </si>
+  <si>
+    <t>输入sock异常</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>输入TS丢包</t>
+  </si>
+  <si>
+    <t>输入TS空包</t>
+  </si>
+  <si>
+    <t>输入RTP丢包</t>
+  </si>
+  <si>
+    <t>输入节目变更</t>
+  </si>
+  <si>
+    <t>输入PID变更</t>
+  </si>
+  <si>
+    <t>输入节目视频丢包</t>
+  </si>
+  <si>
+    <t>输入节目音频丢包</t>
+  </si>
+  <si>
+    <t>输入节目切换</t>
+  </si>
+  <si>
+    <t>不支持MSDK</t>
+  </si>
+  <si>
+    <t>不支持CUDA</t>
+  </si>
+  <si>
+    <t>输出udp_send断流</t>
+  </si>
+  <si>
+    <t>输出http_ts_send断流</t>
+  </si>
+  <si>
+    <t>输出srt_send断流</t>
+  </si>
+  <si>
+    <t>输出rtsp_publish断流</t>
+  </si>
+  <si>
+    <t>输出rtmp_publish断流</t>
+  </si>
+  <si>
+    <t>输出rtmp_publish发布失败</t>
+  </si>
+  <si>
+    <t>解码格式不支持</t>
+  </si>
+  <si>
+    <t>H264编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>H265编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>MPEG2编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>AVS编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>avs_plus编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>avs2编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>avs3编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>aac编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>ac3编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>eac3编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>mpeg2编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>mp3编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>g711编码参数与实际流的属性不符</t>
+  </si>
+  <si>
+    <t>license失败</t>
+  </si>
+  <si>
+    <t>1107600A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107600B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107600C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警级别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换模块告警</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +340,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +528,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -632,9 +781,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -990,48 +1154,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="68" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="68" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11070000</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>11071000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>11071001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11071002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>11071003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>11071004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>11071005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11071006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11071007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11071008</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11071009</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>11072000</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>11073000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>11074000</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>11074001</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>11074002</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>11074003</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11074004</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11074005</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>11075000</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>11076000</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>11076001</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>11076002</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>11076003</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11076004</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>11076005</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>11076006</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>11076007</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>11076008</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>11076009</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>11077000</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
+++ b/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\workspace_tetris\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\workspace_tetris_new\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF89C00-4812-4314-9DA5-77058067CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475AC37-D5E1-4569-99CF-85F4FE6D33D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3015" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>严重</t>
   </si>
@@ -173,6 +173,86 @@
   </si>
   <si>
     <t>信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备离线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备CPU占用高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备GPU占用高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备内存占用高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备CPU温度高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备硬盘占用高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备网卡流量高</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009701</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009702</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009703</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009704</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009705</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00009706</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11071010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11071011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入音频中断</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入视频中断</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1566,6 +1646,105 @@
       </c>
       <c r="D36" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
+++ b/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\workspace_tetris_new\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475AC37-D5E1-4569-99CF-85F4FE6D33D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C385-5492-492B-B01C-2343DDE1E1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>严重</t>
   </si>
@@ -253,6 +253,30 @@
   </si>
   <si>
     <t>输入视频中断</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制磁盘总容量告警</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制单任务容量告警</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BVC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +899,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1235,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1269,10 +1296,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1745,6 +1772,33 @@
       </c>
       <c r="D45" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
+++ b/tetris-project/alarm/cloud/tetris-alarm/suma-venus-alarmoprlog/src/main/resources/init/alarmInfo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\workspace_tetris_new\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gitlib_Cloud\tetris\tetris-project\alarm\cloud\tetris-alarm\suma-venus-alarmoprlog\src\main\resources\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C385-5492-492B-B01C-2343DDE1E1D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>严重</t>
   </si>
@@ -277,13 +276,37 @@
   </si>
   <si>
     <t>BVC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不同步</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备切换</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1261,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1688,43 +1711,43 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>57</v>
@@ -1732,21 +1755,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>57</v>
@@ -1754,10 +1777,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>57</v>
@@ -1765,39 +1788,61 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>73</v>
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>72</v>
       </c>
     </row>
